--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1588749.768126559</v>
+        <v>1586557.890973386</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28215137.91942698</v>
+        <v>28215137.91942703</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3165573.335774305</v>
+        <v>3165573.335774304</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005872</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -740,67 +740,67 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D3" t="n">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E3" t="n">
+      <c r="V3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="W3" t="n">
         <v>36.39025468426209</v>
-      </c>
-      <c r="F3" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,55 +828,55 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H4" t="n">
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I4" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>41.31500304752735</v>
@@ -1068,7 +1068,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="G7" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1214,64 +1214,64 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G9" t="n">
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="H9" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>1.480008777442323</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.5956667680352</v>
@@ -1429,16 +1429,16 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>51.13544420107687</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1545,7 +1545,7 @@
         <v>163.2927798113889</v>
       </c>
       <c r="H13" t="n">
-        <v>132.7900107487581</v>
+        <v>132.7900107487577</v>
       </c>
       <c r="I13" t="n">
         <v>68.44914407541626</v>
@@ -1584,7 +1584,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896238</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>272.5677651810135</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>72.52376898161026</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>384.1594294962055</v>
+        <v>380.7630670759391</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>361.9933945021692</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>372.1253505675372</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2374,7 +2374,7 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752247</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.17164010427837</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T26" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5154774752238</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633428</v>
       </c>
     </row>
     <row r="27">
@@ -2806,7 +2806,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.9513258013687</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H29" t="n">
         <v>271.5679831933489</v>
@@ -2854,7 +2854,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430764</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -3085,7 +3085,7 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5154774752256</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3274,10 +3274,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>386.6113091743425</v>
       </c>
       <c r="F35" t="n">
-        <v>190.6897462355267</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3514,10 +3514,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.9513258013682</v>
+        <v>80.63360584443336</v>
       </c>
       <c r="H38" t="n">
         <v>271.5679831933489</v>
@@ -3556,22 +3556,22 @@
         <v>50.17164010427806</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U38" t="n">
-        <v>65.72319992546156</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U41" t="n">
-        <v>99.61026737208515</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>28.06971004372942</v>
       </c>
     </row>
     <row r="42">
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>146.4504960531559</v>
+        <v>146.4504960531557</v>
       </c>
       <c r="T43" t="n">
         <v>240.675072556151</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6136207896236</v>
+        <v>275.6136207896234</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3982,19 +3982,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V44" t="n">
-        <v>171.8723618939068</v>
+        <v>287.9132199287256</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4309,13 +4309,13 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C2" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D2" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549119</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419042</v>
       </c>
       <c r="F2" t="n">
         <v>3.305200243802188</v>
@@ -4333,10 +4333,10 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K2" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L2" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M2" t="n">
         <v>124.3581591730573</v>
@@ -4369,7 +4369,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X2" t="n">
         <v>149.3429022612615</v>
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C3" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D3" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F3" t="n">
         <v>3.305200243802188</v>
@@ -4412,49 +4412,49 @@
         <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>83.45630615600527</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="L3" t="n">
-        <v>83.45630615600527</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="M3" t="n">
-        <v>83.45630615600527</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="N3" t="n">
-        <v>83.45630615600527</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="O3" t="n">
         <v>83.45630615600527</v>
       </c>
       <c r="P3" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q3" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U3" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="V3" t="n">
-        <v>165.2600121901094</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="W3" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X3" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C4" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D4" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E4" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F4" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G4" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I4" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K4" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L4" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M4" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N4" t="n">
-        <v>126.0107592949584</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O4" t="n">
-        <v>126.0107592949584</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
@@ -4515,25 +4515,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S4" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T4" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U4" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="V4" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="W4" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X4" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="5">
@@ -4567,22 +4567,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P5" t="n">
         <v>83.45630615600527</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81.79535956884203</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C6" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D6" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E6" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F6" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G6" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
@@ -4649,19 +4649,19 @@
         <v>70.27072642131186</v>
       </c>
       <c r="K6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O6" t="n">
-        <v>70.27072642131186</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P6" t="n">
         <v>83.45630615600527</v>
@@ -4673,25 +4673,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T6" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V6" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W6" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X6" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y6" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C7" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D7" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E7" t="n">
-        <v>81.79535956884203</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F7" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G7" t="n">
         <v>3.305200243802188</v>
@@ -4737,7 +4737,7 @@
         <v>3.305200243802188</v>
       </c>
       <c r="N7" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O7" t="n">
         <v>83.45630615600527</v>
@@ -4749,28 +4749,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X7" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y7" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="8">
@@ -4804,25 +4804,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O8" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P8" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q8" t="n">
         <v>124.3581591730573</v>
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>29.36887340425979</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J9" t="n">
-        <v>70.27072642131186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K9" t="n">
-        <v>70.27072642131186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L9" t="n">
-        <v>70.27072642131186</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M9" t="n">
-        <v>70.27072642131186</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N9" t="n">
-        <v>70.27072642131186</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O9" t="n">
-        <v>70.27072642131186</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P9" t="n">
-        <v>111.1725794383639</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q9" t="n">
         <v>124.3581591730573</v>
@@ -4916,19 +4916,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="C10" t="n">
-        <v>165.2600121901094</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="D10" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>128.5021791757032</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
@@ -4968,16 +4968,16 @@
         <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M10" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N10" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O10" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
@@ -4986,28 +4986,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>461.5715949273663</v>
+        <v>1636.356583791138</v>
       </c>
       <c r="C11" t="n">
-        <v>460.0766365663134</v>
+        <v>1198.214110974561</v>
       </c>
       <c r="D11" t="n">
-        <v>460.0766365663134</v>
+        <v>762.3043261490054</v>
       </c>
       <c r="E11" t="n">
-        <v>460.0766365663134</v>
+        <v>762.3043261490054</v>
       </c>
       <c r="F11" t="n">
-        <v>460.0766365663134</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G11" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H11" t="n">
         <v>60.12580242351726</v>
@@ -5041,52 +5041,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J11" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K11" t="n">
-        <v>879.630883821244</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L11" t="n">
-        <v>1103.433794197928</v>
+        <v>1074.218869487984</v>
       </c>
       <c r="M11" t="n">
-        <v>1352.457654196216</v>
+        <v>1323.242729486272</v>
       </c>
       <c r="N11" t="n">
-        <v>1605.510980595707</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O11" t="n">
-        <v>1844.462060967232</v>
+        <v>1815.247136257288</v>
       </c>
       <c r="P11" t="n">
         <v>2048.4012797357</v>
       </c>
       <c r="Q11" t="n">
-        <v>2748.049925732253</v>
+        <v>2748.049925732254</v>
       </c>
       <c r="R11" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S11" t="n">
-        <v>2955.611696828107</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="T11" t="n">
-        <v>2741.878700092718</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U11" t="n">
-        <v>2482.77215718845</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="V11" t="n">
-        <v>2120.155207122277</v>
+        <v>2481.798617696735</v>
       </c>
       <c r="W11" t="n">
-        <v>1715.29975253331</v>
+        <v>2481.798617696735</v>
       </c>
       <c r="X11" t="n">
-        <v>1296.157289112621</v>
+        <v>2062.656154276046</v>
       </c>
       <c r="Y11" t="n">
-        <v>887.8711654122741</v>
+        <v>2062.656154276046</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G12" t="n">
-        <v>94.38419878279969</v>
+        <v>94.3841987827997</v>
       </c>
       <c r="H12" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I12" t="n">
-        <v>86.25132408734105</v>
+        <v>86.25132408734106</v>
       </c>
       <c r="J12" t="n">
-        <v>157.9417523880326</v>
+        <v>434.0744497294277</v>
       </c>
       <c r="K12" t="n">
-        <v>673.7775884730669</v>
+        <v>556.6048103787272</v>
       </c>
       <c r="L12" t="n">
-        <v>838.5347795517416</v>
+        <v>721.3620014574019</v>
       </c>
       <c r="M12" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N12" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O12" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P12" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q12" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R12" t="n">
         <v>1697.561900409858</v>
@@ -5178,19 +5178,19 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C13" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D13" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E13" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512187</v>
       </c>
       <c r="F13" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129749</v>
       </c>
       <c r="G13" t="n">
-        <v>263.3976759832894</v>
+        <v>263.397675983289</v>
       </c>
       <c r="H13" t="n">
         <v>129.2663519946448</v>
@@ -5199,25 +5199,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J13" t="n">
-        <v>105.1020732595476</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K13" t="n">
-        <v>399.772709694224</v>
+        <v>540.3500421434336</v>
       </c>
       <c r="L13" t="n">
-        <v>912.5617265081461</v>
+        <v>744.3689516438142</v>
       </c>
       <c r="M13" t="n">
-        <v>1471.766030621767</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N13" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O13" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191202</v>
       </c>
       <c r="P13" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q13" t="n">
         <v>2998.677814292588</v>
@@ -5238,7 +5238,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W13" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X13" t="n">
         <v>1532.482929320613</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1869.076566802803</v>
+        <v>771.3565621793895</v>
       </c>
       <c r="C14" t="n">
-        <v>1430.934093986227</v>
+        <v>771.3565621793895</v>
       </c>
       <c r="D14" t="n">
-        <v>995.0243091606712</v>
+        <v>335.446777353834</v>
       </c>
       <c r="E14" t="n">
-        <v>561.2495643189663</v>
+        <v>335.446777353834</v>
       </c>
       <c r="F14" t="n">
-        <v>133.3821347281741</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G14" t="n">
-        <v>133.3821347281741</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H14" t="n">
         <v>60.12580242351726</v>
@@ -5278,52 +5278,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J14" t="n">
-        <v>670.0153478550028</v>
+        <v>234.7606604020849</v>
       </c>
       <c r="K14" t="n">
-        <v>850.4159591112997</v>
+        <v>978.8174653931109</v>
       </c>
       <c r="L14" t="n">
-        <v>1074.218869487984</v>
+        <v>1722.874270384137</v>
       </c>
       <c r="M14" t="n">
-        <v>1323.242729486272</v>
+        <v>2068.110504907868</v>
       </c>
       <c r="N14" t="n">
-        <v>1605.510980595707</v>
+        <v>2321.163831307358</v>
       </c>
       <c r="O14" t="n">
-        <v>1844.462060967232</v>
+        <v>2560.114911678883</v>
       </c>
       <c r="P14" t="n">
-        <v>2048.4012797357</v>
+        <v>2764.054130447352</v>
       </c>
       <c r="Q14" t="n">
-        <v>2748.049925732253</v>
+        <v>2917.20399048531</v>
       </c>
       <c r="R14" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S14" t="n">
-        <v>2955.611696828107</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="T14" t="n">
-        <v>2955.611696828107</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U14" t="n">
-        <v>2696.505153923839</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="V14" t="n">
-        <v>2696.505153923839</v>
+        <v>2429.9401743743</v>
       </c>
       <c r="W14" t="n">
-        <v>2696.505153923839</v>
+        <v>2025.084719785333</v>
       </c>
       <c r="X14" t="n">
-        <v>2277.36269050315</v>
+        <v>1605.942256364644</v>
       </c>
       <c r="Y14" t="n">
-        <v>1869.076566802803</v>
+        <v>1197.656132664297</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>86.25132408734105</v>
       </c>
       <c r="J15" t="n">
-        <v>157.9417523880326</v>
+        <v>434.0744497294277</v>
       </c>
       <c r="K15" t="n">
-        <v>673.7775884730669</v>
+        <v>556.6048103787272</v>
       </c>
       <c r="L15" t="n">
-        <v>838.5347795517416</v>
+        <v>721.3620014574019</v>
       </c>
       <c r="M15" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N15" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O15" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P15" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q15" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R15" t="n">
         <v>1697.561900409858</v>
@@ -5415,19 +5415,19 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C16" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D16" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E16" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512182</v>
       </c>
       <c r="F16" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129745</v>
       </c>
       <c r="G16" t="n">
-        <v>263.3976759832894</v>
+        <v>263.397675983289</v>
       </c>
       <c r="H16" t="n">
         <v>129.2663519946448</v>
@@ -5436,13 +5436,13 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J16" t="n">
-        <v>191.6817584242374</v>
+        <v>157.670105681831</v>
       </c>
       <c r="K16" t="n">
-        <v>540.3500421434336</v>
+        <v>231.5799348298916</v>
       </c>
       <c r="L16" t="n">
-        <v>1053.139058957356</v>
+        <v>744.3689516438138</v>
       </c>
       <c r="M16" t="n">
         <v>1303.573255757435</v>
@@ -5466,7 +5466,7 @@
         <v>2858.360327182776</v>
       </c>
       <c r="T16" t="n">
-        <v>2615.254193287674</v>
+        <v>2615.254193287673</v>
       </c>
       <c r="U16" t="n">
         <v>2336.856596530478</v>
@@ -5475,7 +5475,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W16" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X16" t="n">
         <v>1532.482929320613</v>
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1755.992632681299</v>
+        <v>1752.561963569919</v>
       </c>
       <c r="C17" t="n">
-        <v>1317.850159864723</v>
+        <v>1314.419490753342</v>
       </c>
       <c r="D17" t="n">
-        <v>881.9403750391671</v>
+        <v>878.5097059277869</v>
       </c>
       <c r="E17" t="n">
-        <v>448.1656301974622</v>
+        <v>444.734961086082</v>
       </c>
       <c r="F17" t="n">
         <v>60.12580242351726</v>
@@ -5515,22 +5515,22 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J17" t="n">
-        <v>670.0153478550028</v>
+        <v>234.7606604020849</v>
       </c>
       <c r="K17" t="n">
-        <v>850.4159591112997</v>
+        <v>879.630883821244</v>
       </c>
       <c r="L17" t="n">
-        <v>1074.218869487984</v>
+        <v>1103.433794197928</v>
       </c>
       <c r="M17" t="n">
-        <v>1323.242729486272</v>
+        <v>1352.457654196216</v>
       </c>
       <c r="N17" t="n">
-        <v>1576.296055885762</v>
+        <v>1605.510980595707</v>
       </c>
       <c r="O17" t="n">
-        <v>1815.247136257288</v>
+        <v>1844.462060967232</v>
       </c>
       <c r="P17" t="n">
         <v>2048.4012797357</v>
@@ -5554,13 +5554,13 @@
         <v>3006.290121175863</v>
       </c>
       <c r="W17" t="n">
-        <v>2601.434666586896</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="X17" t="n">
-        <v>2182.292203166207</v>
+        <v>2587.147657755173</v>
       </c>
       <c r="Y17" t="n">
-        <v>2182.292203166207</v>
+        <v>2178.861534054827</v>
       </c>
     </row>
     <row r="18">
@@ -5673,25 +5673,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J19" t="n">
-        <v>105.1020732595476</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K19" t="n">
-        <v>453.7703569787437</v>
+        <v>540.3500421434336</v>
       </c>
       <c r="L19" t="n">
-        <v>966.5593737926658</v>
+        <v>1053.139058957356</v>
       </c>
       <c r="M19" t="n">
-        <v>1471.766030621767</v>
+        <v>1612.343363070977</v>
       </c>
       <c r="N19" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O19" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P19" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q19" t="n">
         <v>2998.677814292588</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1795.820234498146</v>
+        <v>1357.67776168157</v>
       </c>
       <c r="C20" t="n">
         <v>1357.67776168157</v>
@@ -5767,37 +5767,37 @@
         <v>1576.296055885762</v>
       </c>
       <c r="O20" t="n">
-        <v>1844.462060967232</v>
+        <v>1815.247136257288</v>
       </c>
       <c r="P20" t="n">
-        <v>2048.4012797357</v>
+        <v>2217.555344488757</v>
       </c>
       <c r="Q20" t="n">
-        <v>2748.049925732253</v>
+        <v>2917.20399048531</v>
       </c>
       <c r="R20" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S20" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T20" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="U20" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="V20" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="W20" t="n">
-        <v>3006.290121175863</v>
+        <v>2550.75624223914</v>
       </c>
       <c r="X20" t="n">
-        <v>2630.405928683401</v>
+        <v>2131.613778818451</v>
       </c>
       <c r="Y20" t="n">
-        <v>2222.119804983054</v>
+        <v>1723.327655118104</v>
       </c>
     </row>
     <row r="21">
@@ -5916,7 +5916,7 @@
         <v>540.3500421434336</v>
       </c>
       <c r="L22" t="n">
-        <v>1053.139058957356</v>
+        <v>744.3689516438138</v>
       </c>
       <c r="M22" t="n">
         <v>1303.573255757435</v>
@@ -5980,7 +5980,7 @@
         <v>775.377742289751</v>
       </c>
       <c r="G23" t="n">
-        <v>375.4269081469547</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H23" t="n">
         <v>101.1158140122575</v>
@@ -5989,37 +5989,37 @@
         <v>155.3825509282454</v>
       </c>
       <c r="J23" t="n">
-        <v>275.7506719908251</v>
+        <v>711.005359443743</v>
       </c>
       <c r="K23" t="n">
-        <v>456.1512832471221</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L23" t="n">
-        <v>1707.459481648809</v>
+        <v>1949.559173034902</v>
       </c>
       <c r="M23" t="n">
-        <v>2139.176545772379</v>
+        <v>2198.58303303319</v>
       </c>
       <c r="N23" t="n">
-        <v>3390.484744174065</v>
+        <v>2451.63635943268</v>
       </c>
       <c r="O23" t="n">
-        <v>4609.615491115896</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P23" t="n">
-        <v>4813.554709884365</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q23" t="n">
-        <v>4966.704569922324</v>
+        <v>4797.550505169267</v>
       </c>
       <c r="R23" t="n">
         <v>5055.790700612876</v>
       </c>
       <c r="S23" t="n">
-        <v>5005.112276265121</v>
+        <v>5005.11227626512</v>
       </c>
       <c r="T23" t="n">
-        <v>4791.379279529732</v>
+        <v>4791.379279529731</v>
       </c>
       <c r="U23" t="n">
         <v>4532.272736625464</v>
@@ -6077,19 +6077,19 @@
         <v>486.219315704747</v>
       </c>
       <c r="M24" t="n">
-        <v>954.6158839402952</v>
+        <v>678.4831865988999</v>
       </c>
       <c r="N24" t="n">
-        <v>1151.968407398013</v>
+        <v>875.8357100566179</v>
       </c>
       <c r="O24" t="n">
-        <v>1332.507410416797</v>
+        <v>1056.374713075401</v>
       </c>
       <c r="P24" t="n">
-        <v>1477.405876939034</v>
+        <v>1201.273179597638</v>
       </c>
       <c r="Q24" t="n">
-        <v>1574.266664519152</v>
+        <v>1691.439442613492</v>
       </c>
       <c r="R24" t="n">
         <v>1738.551911998599</v>
@@ -6147,25 +6147,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J25" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129777</v>
       </c>
       <c r="K25" t="n">
-        <v>440.7627212829642</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L25" t="n">
-        <v>953.5517380968863</v>
+        <v>785.3589632325541</v>
       </c>
       <c r="M25" t="n">
-        <v>1512.756042210507</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N25" t="n">
-        <v>2052.364153196736</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O25" t="n">
-        <v>2561.951244644274</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P25" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q25" t="n">
         <v>3039.667825881328</v>
@@ -6226,28 +6226,28 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J26" t="n">
-        <v>275.7506719908251</v>
+        <v>711.005359443743</v>
       </c>
       <c r="K26" t="n">
-        <v>1290.5015752053</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L26" t="n">
-        <v>2541.809773606987</v>
+        <v>1949.559173034902</v>
       </c>
       <c r="M26" t="n">
-        <v>3793.117972008673</v>
+        <v>2198.58303303319</v>
       </c>
       <c r="N26" t="n">
-        <v>4046.171298408164</v>
+        <v>2451.63635943268</v>
       </c>
       <c r="O26" t="n">
-        <v>4609.615491115896</v>
+        <v>3065.652765570849</v>
       </c>
       <c r="P26" t="n">
-        <v>4813.554709884364</v>
+        <v>4097.901859172714</v>
       </c>
       <c r="Q26" t="n">
-        <v>4966.704569922323</v>
+        <v>4797.550505169266</v>
       </c>
       <c r="R26" t="n">
         <v>5055.790700612875</v>
@@ -6259,13 +6259,13 @@
         <v>4791.37927952973</v>
       </c>
       <c r="U26" t="n">
-        <v>4532.272736625464</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V26" t="n">
         <v>4169.655786559289</v>
       </c>
       <c r="W26" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970322</v>
       </c>
       <c r="X26" t="n">
         <v>3345.657868549633</v>
@@ -6305,28 +6305,28 @@
         <v>127.2413356760813</v>
       </c>
       <c r="J27" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181681</v>
       </c>
       <c r="K27" t="n">
-        <v>321.4621246260722</v>
+        <v>597.5948219674676</v>
       </c>
       <c r="L27" t="n">
-        <v>486.219315704747</v>
+        <v>762.3520130461424</v>
       </c>
       <c r="M27" t="n">
-        <v>1071.788662034635</v>
+        <v>954.6158839402952</v>
       </c>
       <c r="N27" t="n">
-        <v>1269.141185492353</v>
+        <v>1151.968407398013</v>
       </c>
       <c r="O27" t="n">
-        <v>1449.680188511136</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P27" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q27" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R27" t="n">
         <v>1738.551911998599</v>
@@ -6384,25 +6384,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J28" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K28" t="n">
-        <v>440.7627212829642</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L28" t="n">
-        <v>953.5517380968863</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M28" t="n">
-        <v>1512.756042210507</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N28" t="n">
-        <v>2052.364153196736</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O28" t="n">
-        <v>2561.951244644274</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P28" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q28" t="n">
         <v>3039.667825881328</v>
@@ -6442,7 +6442,7 @@
         <v>2511.072174364379</v>
       </c>
       <c r="C29" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D29" t="n">
         <v>1637.019916722247</v>
@@ -6451,52 +6451,52 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F29" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G29" t="n">
-        <v>375.4269081469535</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H29" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I29" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J29" t="n">
-        <v>275.7506719908251</v>
+        <v>711.005359443743</v>
       </c>
       <c r="K29" t="n">
-        <v>456.1512832471221</v>
+        <v>891.40597070004</v>
       </c>
       <c r="L29" t="n">
-        <v>887.8683473706916</v>
+        <v>2060.09768294289</v>
       </c>
       <c r="M29" t="n">
-        <v>2139.176545772379</v>
+        <v>2309.121542941178</v>
       </c>
       <c r="N29" t="n">
-        <v>3390.484744174065</v>
+        <v>2562.174869340668</v>
       </c>
       <c r="O29" t="n">
-        <v>4609.615491115896</v>
+        <v>3781.3056162825</v>
       </c>
       <c r="P29" t="n">
-        <v>4813.554709884365</v>
+        <v>4813.554709884364</v>
       </c>
       <c r="Q29" t="n">
-        <v>4966.704569922324</v>
+        <v>4966.704569922323</v>
       </c>
       <c r="R29" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612875</v>
       </c>
       <c r="S29" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265119</v>
       </c>
       <c r="T29" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U29" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V29" t="n">
         <v>4169.655786559289</v>
@@ -6505,7 +6505,7 @@
         <v>3764.800331970323</v>
       </c>
       <c r="X29" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y29" t="n">
         <v>2937.371744849287</v>
@@ -6524,46 +6524,46 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D30" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E30" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F30" t="n">
-        <v>219.9850883306117</v>
+        <v>219.9850883306116</v>
       </c>
       <c r="G30" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H30" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I30" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J30" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181681</v>
       </c>
       <c r="K30" t="n">
-        <v>321.4621246260722</v>
+        <v>597.5948219674676</v>
       </c>
       <c r="L30" t="n">
-        <v>486.219315704747</v>
+        <v>762.3520130461424</v>
       </c>
       <c r="M30" t="n">
-        <v>678.4831865988999</v>
+        <v>954.6158839402952</v>
       </c>
       <c r="N30" t="n">
-        <v>875.8357100566179</v>
+        <v>1151.968407398013</v>
       </c>
       <c r="O30" t="n">
-        <v>1056.374713075401</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P30" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q30" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R30" t="n">
         <v>1738.551911998599</v>
@@ -6621,25 +6621,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J31" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K31" t="n">
-        <v>440.7627212829642</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L31" t="n">
-        <v>953.5517380968863</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M31" t="n">
-        <v>1512.756042210507</v>
+        <v>1653.333374659717</v>
       </c>
       <c r="N31" t="n">
-        <v>2052.364153196736</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O31" t="n">
-        <v>2561.951244644274</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P31" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q31" t="n">
         <v>3039.667825881328</v>
@@ -6679,7 +6679,7 @@
         <v>2511.072174364379</v>
       </c>
       <c r="C32" t="n">
-        <v>2072.929701547802</v>
+        <v>2072.929701547803</v>
       </c>
       <c r="D32" t="n">
         <v>1637.019916722247</v>
@@ -6688,43 +6688,43 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F32" t="n">
-        <v>775.3777422897496</v>
+        <v>775.3777422897501</v>
       </c>
       <c r="G32" t="n">
-        <v>375.4269081469535</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H32" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I32" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J32" t="n">
         <v>275.7506719908251</v>
       </c>
       <c r="K32" t="n">
-        <v>456.1512832471221</v>
+        <v>1290.5015752053</v>
       </c>
       <c r="L32" t="n">
-        <v>1707.459481648809</v>
+        <v>2541.809773606987</v>
       </c>
       <c r="M32" t="n">
-        <v>2958.767680050496</v>
+        <v>2790.833633605275</v>
       </c>
       <c r="N32" t="n">
-        <v>4210.075878452182</v>
+        <v>3221.330679421008</v>
       </c>
       <c r="O32" t="n">
-        <v>4609.615491115896</v>
+        <v>4440.461426362839</v>
       </c>
       <c r="P32" t="n">
-        <v>4813.554709884365</v>
+        <v>4644.400645131308</v>
       </c>
       <c r="Q32" t="n">
-        <v>4966.704569922324</v>
+        <v>4797.550505169266</v>
       </c>
       <c r="R32" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612875</v>
       </c>
       <c r="S32" t="n">
         <v>5005.11227626512</v>
@@ -6742,7 +6742,7 @@
         <v>3764.800331970323</v>
       </c>
       <c r="X32" t="n">
-        <v>3345.657868549633</v>
+        <v>3345.657868549634</v>
       </c>
       <c r="Y32" t="n">
         <v>2937.371744849287</v>
@@ -6761,16 +6761,16 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D33" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E33" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F33" t="n">
-        <v>219.9850883306117</v>
+        <v>219.9850883306116</v>
       </c>
       <c r="G33" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H33" t="n">
         <v>101.1158140122575</v>
@@ -6779,28 +6779,28 @@
         <v>127.2413356760813</v>
       </c>
       <c r="J33" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181681</v>
       </c>
       <c r="K33" t="n">
-        <v>321.4621246260722</v>
+        <v>597.5948219674676</v>
       </c>
       <c r="L33" t="n">
-        <v>486.219315704747</v>
+        <v>762.3520130461424</v>
       </c>
       <c r="M33" t="n">
-        <v>1071.788662034635</v>
+        <v>954.6158839402952</v>
       </c>
       <c r="N33" t="n">
-        <v>1269.141185492353</v>
+        <v>1151.968407398013</v>
       </c>
       <c r="O33" t="n">
-        <v>1449.680188511136</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P33" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q33" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R33" t="n">
         <v>1738.551911998599</v>
@@ -6858,25 +6858,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J34" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K34" t="n">
-        <v>440.7627212829642</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L34" t="n">
-        <v>953.5517380968863</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M34" t="n">
-        <v>1512.756042210507</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N34" t="n">
-        <v>2052.364153196736</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O34" t="n">
-        <v>2561.951244644274</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P34" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q34" t="n">
         <v>3039.667825881328</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1560.568710195765</v>
+        <v>1752.561963569919</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.426237379188</v>
+        <v>1314.419490753342</v>
       </c>
       <c r="D35" t="n">
-        <v>686.5164525536329</v>
+        <v>878.5097059277869</v>
       </c>
       <c r="E35" t="n">
-        <v>252.7417077119281</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F35" t="n">
         <v>60.12580242351726</v>
@@ -6940,25 +6940,25 @@
         <v>670.0153478550028</v>
       </c>
       <c r="K35" t="n">
-        <v>1414.072152846029</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L35" t="n">
-        <v>1637.875063222713</v>
+        <v>1074.218869487984</v>
       </c>
       <c r="M35" t="n">
-        <v>1886.898923221001</v>
+        <v>1323.242729486272</v>
       </c>
       <c r="N35" t="n">
-        <v>2139.952249620491</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O35" t="n">
-        <v>2560.114911678883</v>
+        <v>1815.247136257288</v>
       </c>
       <c r="P35" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q35" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R35" t="n">
         <v>3006.290121175863</v>
@@ -6970,19 +6970,19 @@
         <v>3006.290121175863</v>
       </c>
       <c r="U35" t="n">
-        <v>2747.183578271595</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="V35" t="n">
-        <v>2384.566628205421</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="W35" t="n">
-        <v>1979.711173616455</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="X35" t="n">
-        <v>1560.568710195765</v>
+        <v>2587.147657755173</v>
       </c>
       <c r="Y35" t="n">
-        <v>1560.568710195765</v>
+        <v>2178.861534054827</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>86.25132408734105</v>
       </c>
       <c r="J36" t="n">
-        <v>157.9417523880326</v>
+        <v>434.0744497294277</v>
       </c>
       <c r="K36" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787272</v>
       </c>
       <c r="L36" t="n">
-        <v>445.2293041160067</v>
+        <v>721.3620014574019</v>
       </c>
       <c r="M36" t="n">
-        <v>637.4931750101596</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N36" t="n">
         <v>1110.978395809273</v>
@@ -7074,16 +7074,16 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C37" t="n">
-        <v>940.6829283989587</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D37" t="n">
-        <v>774.8049356004813</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E37" t="n">
-        <v>605.0469318512187</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F37" t="n">
-        <v>428.3398778129749</v>
+        <v>428.3398778129751</v>
       </c>
       <c r="G37" t="n">
         <v>263.3976759832894</v>
@@ -7095,25 +7095,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J37" t="n">
-        <v>105.1020732595476</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K37" t="n">
-        <v>399.772709694224</v>
+        <v>540.3500421434336</v>
       </c>
       <c r="L37" t="n">
-        <v>912.5617265081461</v>
+        <v>744.3689516438138</v>
       </c>
       <c r="M37" t="n">
-        <v>1471.766030621767</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N37" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O37" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P37" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q37" t="n">
         <v>2998.677814292588</v>
@@ -7134,7 +7134,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W37" t="n">
-        <v>1777.8746839872</v>
+        <v>1777.874683987201</v>
       </c>
       <c r="X37" t="n">
         <v>1532.482929320613</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2470.082162775639</v>
+        <v>1285.569512937022</v>
       </c>
       <c r="C38" t="n">
-        <v>2031.939689959062</v>
+        <v>1285.569512937022</v>
       </c>
       <c r="D38" t="n">
-        <v>1596.029905133506</v>
+        <v>849.6597281114668</v>
       </c>
       <c r="E38" t="n">
-        <v>1162.255160291802</v>
+        <v>415.884983269762</v>
       </c>
       <c r="F38" t="n">
-        <v>734.3877307010093</v>
+        <v>415.884983269762</v>
       </c>
       <c r="G38" t="n">
         <v>334.4368965582132</v>
@@ -7174,22 +7174,22 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J38" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K38" t="n">
-        <v>415.1612716583818</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L38" t="n">
-        <v>638.9641820350655</v>
+        <v>1074.218869487984</v>
       </c>
       <c r="M38" t="n">
-        <v>887.9880420333536</v>
+        <v>1323.242729486272</v>
       </c>
       <c r="N38" t="n">
-        <v>1141.041368432844</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O38" t="n">
-        <v>1844.462060967232</v>
+        <v>1815.247136257288</v>
       </c>
       <c r="P38" t="n">
         <v>2048.4012797357</v>
@@ -7204,22 +7204,22 @@
         <v>2955.611696828107</v>
       </c>
       <c r="T38" t="n">
-        <v>2955.611696828107</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U38" t="n">
-        <v>2889.224626196328</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V38" t="n">
-        <v>2889.224626196328</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W38" t="n">
-        <v>2889.224626196328</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="X38" t="n">
-        <v>2470.082162775639</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="Y38" t="n">
-        <v>2470.082162775639</v>
+        <v>1711.86908342193</v>
       </c>
     </row>
     <row r="39">
@@ -7332,25 +7332,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J40" t="n">
-        <v>105.1020732595476</v>
+        <v>157.670105681831</v>
       </c>
       <c r="K40" t="n">
-        <v>453.7703569787437</v>
+        <v>231.5799348298916</v>
       </c>
       <c r="L40" t="n">
-        <v>966.5593737926658</v>
+        <v>744.3689516438138</v>
       </c>
       <c r="M40" t="n">
-        <v>1525.763677906287</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N40" t="n">
-        <v>2065.371788892516</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O40" t="n">
-        <v>2574.958880340054</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P40" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q40" t="n">
         <v>2998.677814292588</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1795.820234498146</v>
+        <v>1204.121426225473</v>
       </c>
       <c r="C41" t="n">
-        <v>1357.67776168157</v>
+        <v>1204.121426225473</v>
       </c>
       <c r="D41" t="n">
-        <v>921.7679768560143</v>
+        <v>768.211641399918</v>
       </c>
       <c r="E41" t="n">
-        <v>487.9932320143095</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="F41" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G41" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H41" t="n">
         <v>60.12580242351726</v>
@@ -7411,28 +7411,28 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J41" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K41" t="n">
-        <v>415.1612716583818</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L41" t="n">
-        <v>1159.218076649408</v>
+        <v>1074.218869487984</v>
       </c>
       <c r="M41" t="n">
-        <v>1903.274881640434</v>
+        <v>1323.242729486272</v>
       </c>
       <c r="N41" t="n">
-        <v>2321.163831307358</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O41" t="n">
-        <v>2560.114911678883</v>
+        <v>1815.247136257288</v>
       </c>
       <c r="P41" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q41" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R41" t="n">
         <v>3006.290121175863</v>
@@ -7444,19 +7444,19 @@
         <v>2741.878700092718</v>
       </c>
       <c r="U41" t="n">
-        <v>2641.262268403743</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V41" t="n">
-        <v>2641.262268403743</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="W41" t="n">
-        <v>2641.262268403743</v>
+        <v>2077.916702599484</v>
       </c>
       <c r="X41" t="n">
-        <v>2222.119804983054</v>
+        <v>1658.774239178795</v>
       </c>
       <c r="Y41" t="n">
-        <v>2222.119804983054</v>
+        <v>1630.420996710381</v>
       </c>
     </row>
     <row r="42">
@@ -7548,16 +7548,16 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C43" t="n">
-        <v>940.6829283989587</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D43" t="n">
-        <v>774.8049356004813</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E43" t="n">
-        <v>605.0469318512187</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F43" t="n">
-        <v>428.3398778129749</v>
+        <v>428.3398778129751</v>
       </c>
       <c r="G43" t="n">
         <v>263.3976759832894</v>
@@ -7569,25 +7569,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J43" t="n">
-        <v>105.1020732595476</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K43" t="n">
-        <v>453.7703569787437</v>
+        <v>540.3500421434336</v>
       </c>
       <c r="L43" t="n">
-        <v>966.5593737926658</v>
+        <v>1053.139058957356</v>
       </c>
       <c r="M43" t="n">
-        <v>1525.763677906287</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N43" t="n">
-        <v>2065.371788892516</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O43" t="n">
-        <v>2574.958880340054</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P43" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q43" t="n">
         <v>2998.677814292588</v>
@@ -7608,7 +7608,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W43" t="n">
-        <v>1777.8746839872</v>
+        <v>1777.874683987201</v>
       </c>
       <c r="X43" t="n">
         <v>1532.482929320613</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1600.397633108378</v>
+        <v>1367.952804907354</v>
       </c>
       <c r="C44" t="n">
-        <v>1162.255160291802</v>
+        <v>929.8103320907776</v>
       </c>
       <c r="D44" t="n">
-        <v>1162.255160291802</v>
+        <v>493.9005472652221</v>
       </c>
       <c r="E44" t="n">
-        <v>1162.255160291802</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="F44" t="n">
-        <v>734.3877307010093</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G44" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H44" t="n">
         <v>60.12580242351726</v>
@@ -7648,13 +7648,13 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J44" t="n">
-        <v>234.7606604020849</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K44" t="n">
-        <v>415.1612716583818</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L44" t="n">
-        <v>1103.433794197928</v>
+        <v>1074.218869487984</v>
       </c>
       <c r="M44" t="n">
         <v>1352.457654196216</v>
@@ -7675,25 +7675,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S44" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T44" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U44" t="n">
-        <v>3006.290121175863</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V44" t="n">
-        <v>2832.681674818381</v>
+        <v>2191.95072291701</v>
       </c>
       <c r="W44" t="n">
-        <v>2427.826220229414</v>
+        <v>1787.095268328043</v>
       </c>
       <c r="X44" t="n">
-        <v>2008.683756808725</v>
+        <v>1367.952804907354</v>
       </c>
       <c r="Y44" t="n">
-        <v>1600.397633108378</v>
+        <v>1367.952804907354</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>86.25132408734105</v>
       </c>
       <c r="J45" t="n">
-        <v>157.9417523880326</v>
+        <v>434.0744497294277</v>
       </c>
       <c r="K45" t="n">
-        <v>673.7775884730669</v>
+        <v>556.6048103787272</v>
       </c>
       <c r="L45" t="n">
-        <v>838.5347795517416</v>
+        <v>721.3620014574019</v>
       </c>
       <c r="M45" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N45" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O45" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P45" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q45" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R45" t="n">
         <v>1697.561900409858</v>
@@ -7981,13 +7981,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L2" t="n">
-        <v>41.31500304752736</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>13.31876740878121</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -8297,7 +8297,7 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>41.31500304752734</v>
@@ -8385,10 +8385,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="O7" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="O7" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="P7" t="n">
         <v>41.31500304752734</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="O8" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>41.31500304752734</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>13.31876740878121</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -8616,7 +8616,7 @@
         <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>469.1612244069314</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>29.51002495954003</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8768,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>278.9219165064597</v>
       </c>
       <c r="K12" t="n">
-        <v>397.2782580158938</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>222.9907144309251</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645587</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>569.3496906411405</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>525.5089844589315</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>97.18421669236659</v>
       </c>
       <c r="N14" t="n">
-        <v>29.51002495953958</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>278.9219165064598</v>
       </c>
       <c r="K15" t="n">
-        <v>397.2782580158938</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>53.09902264877121</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>152.2361210781526</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>469.1612244069314</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>29.51002495953958</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9330,10 +9330,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>409.5820402993872</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>134.8370665091945</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>29.51002495953958</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>200.372716629294</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216355</v>
       </c>
       <c r="M22" t="n">
-        <v>152.2361210781526</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1037.884129318185</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>184.5385900255369</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1008.338254547673</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>378.8538644107516</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>278.92191650646</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>397.2782580158942</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>222.9907144309251</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216355</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1037.884129318185</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1012.408422629695</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>327.7708205416229</v>
+        <v>378.8538644107507</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>278.9219165064599</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>397.278258015894</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>222.9907144309251</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781526</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>210.0142967140262</v>
+        <v>954.4331331981477</v>
       </c>
       <c r="M29" t="n">
-        <v>1012.408422629696</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1008.338254547673</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>252.5949739201391</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>222.9907144309251</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10281,7 +10281,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>134.8370665091945</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1037.884129318185</v>
       </c>
       <c r="M32" t="n">
-        <v>1012.408422629695</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1008.338254547673</v>
+        <v>179.2360802184271</v>
       </c>
       <c r="O32" t="n">
-        <v>162.2106386789792</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>278.9219165064599</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>397.278258015894</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>222.9907144309251</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781526</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>569.3496906411406</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>183.042001703906</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>29.51002495953958</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>278.9219165064598</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>278.9219165064599</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>222.9907144309251</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216355</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>469.1612244069315</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>29.51002495953958</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>53.09902264877121</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -10998,10 +10998,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>296.4739865513352</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5089844589315</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>500.0332777704423</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>166.5006295630646</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>29.51002495953958</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11226,7 +11226,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781526</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11235,10 +11235,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>296.4739865513352</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>469.1612244069315</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>29.51002495953958</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>278.9219165064598</v>
       </c>
       <c r="K45" t="n">
-        <v>397.2782580158938</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>432.2810393109686</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H11" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>307.8553363644348</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>151.0209901138708</v>
       </c>
       <c r="G14" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H14" t="n">
-        <v>199.0442142117387</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T14" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>39.4293257986788</v>
+        <v>42.82568821894523</v>
       </c>
       <c r="G17" t="n">
         <v>395.9513258013682</v>
@@ -23794,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>60.04318027788952</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.5956667680352</v>
@@ -24031,10 +24031,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>42.82568821894523</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>42.82568821894523</v>
       </c>
       <c r="F35" t="n">
-        <v>232.8990090593576</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.9513258013682</v>
@@ -25210,19 +25210,19 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>315.3177199569348</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>190.7922775497637</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.9052101031401</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>376.1335524196137</v>
       </c>
     </row>
     <row r="42">
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.17164010427806</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>187.1184186716049</v>
+        <v>71.07756063678613</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>538953.8280158814</v>
+        <v>538953.8280158815</v>
       </c>
     </row>
     <row r="11">
@@ -26316,10 +26316,10 @@
         <v>522743.6368931483</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="D2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931484</v>
       </c>
       <c r="E2" t="n">
         <v>368421.9367741508</v>
@@ -26331,7 +26331,7 @@
         <v>368421.9367741509</v>
       </c>
       <c r="H2" t="n">
-        <v>368421.9367741508</v>
+        <v>368421.9367741509</v>
       </c>
       <c r="I2" t="n">
         <v>522743.6368931482</v>
@@ -26340,13 +26340,13 @@
         <v>522743.6368931481</v>
       </c>
       <c r="K2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931481</v>
       </c>
       <c r="L2" t="n">
         <v>522743.6368931482</v>
       </c>
       <c r="M2" t="n">
-        <v>368421.9367741508</v>
+        <v>368421.9367741509</v>
       </c>
       <c r="N2" t="n">
         <v>368421.9367741508</v>
@@ -26355,7 +26355,7 @@
         <v>368421.9367741509</v>
       </c>
       <c r="P2" t="n">
-        <v>368421.9367741508</v>
+        <v>368421.9367741509</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498352.8259836708</v>
+        <v>498352.8259836709</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49313.08122041602</v>
+        <v>49313.08122041613</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>301646.5989996908</v>
       </c>
       <c r="E4" t="n">
-        <v>63447.6696671735</v>
+        <v>63447.66966717353</v>
       </c>
       <c r="F4" t="n">
+        <v>63447.66966717353</v>
+      </c>
+      <c r="G4" t="n">
         <v>63447.66966717351</v>
       </c>
-      <c r="G4" t="n">
-        <v>63447.66966717352</v>
-      </c>
       <c r="H4" t="n">
-        <v>63447.66966717353</v>
+        <v>63447.66966717351</v>
       </c>
       <c r="I4" t="n">
         <v>124249.5450329029</v>
       </c>
       <c r="J4" t="n">
-        <v>124249.5450329028</v>
+        <v>124249.5450329029</v>
       </c>
       <c r="K4" t="n">
         <v>124249.5450329029</v>
       </c>
       <c r="L4" t="n">
-        <v>124249.5450329029</v>
+        <v>124249.5450329028</v>
       </c>
       <c r="M4" t="n">
-        <v>63447.66966717353</v>
+        <v>63447.66966717351</v>
       </c>
       <c r="N4" t="n">
-        <v>63447.66966717352</v>
+        <v>63447.66966717351</v>
       </c>
       <c r="O4" t="n">
-        <v>63447.66966717353</v>
+        <v>63447.66966717351</v>
       </c>
       <c r="P4" t="n">
-        <v>63447.66966717352</v>
+        <v>63447.66966717351</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>36139.55218528966</v>
       </c>
       <c r="E5" t="n">
-        <v>53463.84704971767</v>
+        <v>53463.84704971768</v>
       </c>
       <c r="F5" t="n">
         <v>53463.84704971767</v>
@@ -26496,10 +26496,10 @@
         <v>84616.25585716026</v>
       </c>
       <c r="K5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="L5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="M5" t="n">
         <v>53463.84704971767</v>
@@ -26524,46 +26524,46 @@
         <v>171111.8779418713</v>
       </c>
       <c r="C6" t="n">
-        <v>184957.4857081677</v>
+        <v>184957.4857081678</v>
       </c>
       <c r="D6" t="n">
-        <v>184957.4857081677</v>
+        <v>184957.4857081678</v>
       </c>
       <c r="E6" t="n">
-        <v>-246842.4059264111</v>
+        <v>-247238.1025933831</v>
       </c>
       <c r="F6" t="n">
-        <v>251510.4200572596</v>
+        <v>251114.7233902878</v>
       </c>
       <c r="G6" t="n">
-        <v>251510.4200572597</v>
+        <v>251114.7233902879</v>
       </c>
       <c r="H6" t="n">
-        <v>251510.4200572596</v>
+        <v>251114.7233902879</v>
       </c>
       <c r="I6" t="n">
         <v>177626.5251069675</v>
       </c>
       <c r="J6" t="n">
-        <v>303068.0133457179</v>
+        <v>303068.0133457178</v>
       </c>
       <c r="K6" t="n">
-        <v>313877.8360030851</v>
+        <v>313877.836003085</v>
       </c>
       <c r="L6" t="n">
         <v>313877.8360030851</v>
       </c>
       <c r="M6" t="n">
-        <v>202197.3388368436</v>
+        <v>201801.6421698718</v>
       </c>
       <c r="N6" t="n">
-        <v>251510.4200572596</v>
+        <v>251114.7233902878</v>
       </c>
       <c r="O6" t="n">
-        <v>251510.4200572597</v>
+        <v>251114.7233902879</v>
       </c>
       <c r="P6" t="n">
-        <v>251510.4200572596</v>
+        <v>251114.723390288</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939658</v>
       </c>
       <c r="F4" t="n">
         <v>751.5725302939657</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>710.2575272464383</v>
+        <v>710.2575272464384</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>197.8823823871849</v>
+        <v>197.8823823871853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>710.2575272464383</v>
+        <v>710.2575272464384</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27460,16 +27460,16 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>56.78895584205372</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G3" t="n">
         <v>84.53123883647795</v>
@@ -27508,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W3" t="n">
-        <v>183.4695267241379</v>
+        <v>147.0792720398758</v>
       </c>
       <c r="X3" t="n">
         <v>153.3187614035088</v>
@@ -27539,7 +27539,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27548,16 +27548,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>138.5497288135992</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>116.333951967456</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>247.6956983640117</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.0908620689655</v>
+        <v>83.70060738470343</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>48.14098415221586</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
         <v>174.5731815300314</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>126.7454206642428</v>
@@ -27788,7 +27788,7 @@
         <v>133.624980450334</v>
       </c>
       <c r="G7" t="n">
-        <v>127.5451075401685</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -27839,7 +27839,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>227.7512255173414</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27934,22 +27934,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>69.00164186746204</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
-        <v>56.78895584205373</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27988,10 +27988,10 @@
         <v>128.8768572327044</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
@@ -28013,25 +28013,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>149.0326012679123</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
-        <v>138.5497288135992</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>97.18814951900188</v>
       </c>
       <c r="I10" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -34701,13 +34701,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L2" t="n">
-        <v>41.31500304752736</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>13.31876740878121</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -35017,7 +35017,7 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>41.31500304752734</v>
@@ -35105,10 +35105,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="O7" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="O7" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="P7" t="n">
         <v>41.31500304752734</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="O8" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>41.31500304752734</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>13.31876740878121</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -35336,7 +35336,7 @@
         <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -35348,7 +35348,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35409,10 +35409,10 @@
         <v>54.8148857737251</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K11" t="n">
-        <v>651.3840640597566</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L11" t="n">
         <v>226.0635458350341</v>
@@ -35427,7 +35427,7 @@
         <v>241.3647276480053</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367808</v>
       </c>
       <c r="Q11" t="n">
         <v>706.7158040369222</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110254</v>
+        <v>351.3364905475622</v>
       </c>
       <c r="K12" t="n">
-        <v>521.0462990757923</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L12" t="n">
         <v>166.4214051299746</v>
@@ -35512,7 +35512,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.4305766020508</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K13" t="n">
-        <v>297.6471075097742</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L13" t="n">
-        <v>517.9687038524467</v>
+        <v>206.079706566041</v>
       </c>
       <c r="M13" t="n">
-        <v>564.8528324380011</v>
+        <v>564.8528324380012</v>
       </c>
       <c r="N13" t="n">
         <v>545.0586979658876</v>
@@ -35588,7 +35588,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R13" t="n">
         <v>7.689198871994801</v>
@@ -35646,31 +35646,31 @@
         <v>54.8148857737251</v>
       </c>
       <c r="J14" t="n">
-        <v>561.2351601166644</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K14" t="n">
-        <v>182.2228396528252</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="L14" t="n">
-        <v>226.0635458350341</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="M14" t="n">
-        <v>251.5392525235234</v>
+        <v>348.72346921589</v>
       </c>
       <c r="N14" t="n">
-        <v>285.1194455650857</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O14" t="n">
-        <v>241.3647276480053</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P14" t="n">
         <v>205.9992108772408</v>
       </c>
       <c r="Q14" t="n">
-        <v>706.7158040369222</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R14" t="n">
-        <v>260.8486822662721</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>26.38941582204423</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110254</v>
+        <v>351.3364905475623</v>
       </c>
       <c r="K15" t="n">
-        <v>521.0462990757923</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L15" t="n">
         <v>166.4214051299746</v>
@@ -35749,7 +35749,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>132.8848040411314</v>
+        <v>98.529599250822</v>
       </c>
       <c r="K16" t="n">
-        <v>352.1901855749456</v>
+        <v>74.65639307884908</v>
       </c>
       <c r="L16" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M16" t="n">
-        <v>252.963835151595</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N16" t="n">
         <v>545.0586979658876</v>
@@ -35883,10 +35883,10 @@
         <v>54.8148857737251</v>
       </c>
       <c r="J17" t="n">
-        <v>561.2351601166644</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2228396528252</v>
+        <v>651.3840640597566</v>
       </c>
       <c r="L17" t="n">
         <v>226.0635458350341</v>
@@ -35901,7 +35901,7 @@
         <v>241.3647276480053</v>
       </c>
       <c r="P17" t="n">
-        <v>235.5092358367804</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q17" t="n">
         <v>706.7158040369222</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.4305766020508</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K19" t="n">
         <v>352.1901855749456</v>
@@ -36050,10 +36050,10 @@
         <v>517.9687038524467</v>
       </c>
       <c r="M19" t="n">
-        <v>510.3097543728296</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N19" t="n">
-        <v>545.0586979658876</v>
+        <v>233.1697006794816</v>
       </c>
       <c r="O19" t="n">
         <v>514.7344358055939</v>
@@ -36062,7 +36062,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R19" t="n">
         <v>7.689198871994801</v>
@@ -36135,16 +36135,16 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O20" t="n">
-        <v>270.8747526075449</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772408</v>
+        <v>406.3719275065348</v>
       </c>
       <c r="Q20" t="n">
         <v>706.7158040369222</v>
       </c>
       <c r="R20" t="n">
-        <v>260.8486822662721</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36284,10 +36284,10 @@
         <v>352.1901855749456</v>
       </c>
       <c r="L22" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660406</v>
       </c>
       <c r="M22" t="n">
-        <v>252.963835151595</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N22" t="n">
         <v>545.0586979658876</v>
@@ -36357,31 +36357,31 @@
         <v>54.8148857737251</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K23" t="n">
-        <v>182.2228396528252</v>
+        <v>1025.000912337854</v>
       </c>
       <c r="L23" t="n">
-        <v>1263.947675153219</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M23" t="n">
-        <v>436.0778425490603</v>
+        <v>251.5392525235236</v>
       </c>
       <c r="N23" t="n">
-        <v>1263.947675153219</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
-        <v>1231.445198931143</v>
+        <v>620.2185920587567</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772412</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>166.4214051299745</v>
       </c>
       <c r="M24" t="n">
-        <v>473.127846702574</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906244</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O24" t="n">
         <v>182.3626293119023</v>
@@ -36457,10 +36457,10 @@
         <v>146.3620873961991</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.83917937385672</v>
+        <v>495.1174373897509</v>
       </c>
       <c r="R24" t="n">
-        <v>165.9446944236836</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K25" t="n">
-        <v>297.6471075097742</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L25" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660406</v>
       </c>
       <c r="M25" t="n">
         <v>564.8528324380011</v>
@@ -36536,7 +36536,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R25" t="n">
         <v>7.689198871994801</v>
@@ -36594,31 +36594,31 @@
         <v>54.8148857737251</v>
       </c>
       <c r="J26" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K26" t="n">
         <v>1025.000912337854</v>
       </c>
       <c r="L26" t="n">
-        <v>1263.947675153219</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M26" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235236</v>
       </c>
       <c r="N26" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O26" t="n">
-        <v>569.1355481896285</v>
+        <v>620.2185920587558</v>
       </c>
       <c r="P26" t="n">
-        <v>205.9992108772412</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q26" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>26.38941582204424</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110255</v>
+        <v>351.3364905475624</v>
       </c>
       <c r="K27" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L27" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4841882120081</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N27" t="n">
         <v>199.3459832906244</v>
@@ -36697,7 +36697,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K28" t="n">
-        <v>297.6471075097742</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L28" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M28" t="n">
-        <v>564.8528324380011</v>
+        <v>252.963835151595</v>
       </c>
       <c r="N28" t="n">
         <v>545.0586979658876</v>
@@ -36773,7 +36773,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R28" t="n">
         <v>7.689198871994801</v>
@@ -36831,25 +36831,25 @@
         <v>54.8148857737251</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K29" t="n">
         <v>182.2228396528252</v>
       </c>
       <c r="L29" t="n">
-        <v>436.0778425490602</v>
+        <v>1180.496679033182</v>
       </c>
       <c r="M29" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N29" t="n">
-        <v>1263.947675153219</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
         <v>1231.445198931143</v>
       </c>
       <c r="P29" t="n">
-        <v>205.9992108772412</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q29" t="n">
         <v>154.69682832117</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612417</v>
       </c>
       <c r="K30" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L30" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M30" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O30" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P30" t="n">
-        <v>543.6403454120932</v>
+        <v>146.3620873961991</v>
       </c>
       <c r="Q30" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K31" t="n">
-        <v>297.6471075097742</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L31" t="n">
         <v>517.9687038524467</v>
@@ -37001,7 +37001,7 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N31" t="n">
-        <v>545.0586979658876</v>
+        <v>233.1697006794816</v>
       </c>
       <c r="O31" t="n">
         <v>514.7344358055939</v>
@@ -37010,7 +37010,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R31" t="n">
         <v>7.689198871994801</v>
@@ -37071,19 +37071,19 @@
         <v>121.5839606692725</v>
       </c>
       <c r="K32" t="n">
-        <v>182.2228396528252</v>
+        <v>1025.000912337854</v>
       </c>
       <c r="L32" t="n">
         <v>1263.947675153219</v>
       </c>
       <c r="M32" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N32" t="n">
-        <v>1263.947675153219</v>
+        <v>434.845500823973</v>
       </c>
       <c r="O32" t="n">
-        <v>403.5753663269843</v>
+        <v>1231.445198931143</v>
       </c>
       <c r="P32" t="n">
         <v>205.9992108772412</v>
@@ -37092,7 +37092,7 @@
         <v>154.69682832117</v>
       </c>
       <c r="R32" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>26.38941582204424</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110253</v>
+        <v>351.3364905475624</v>
       </c>
       <c r="K33" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4841882120081</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N33" t="n">
         <v>199.3459832906244</v>
@@ -37171,7 +37171,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K34" t="n">
-        <v>297.6471075097742</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L34" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M34" t="n">
-        <v>564.8528324380011</v>
+        <v>252.963835151595</v>
       </c>
       <c r="N34" t="n">
         <v>545.0586979658876</v>
@@ -37247,7 +37247,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R34" t="n">
         <v>7.689198871994801</v>
@@ -37308,7 +37308,7 @@
         <v>561.2351601166644</v>
       </c>
       <c r="K35" t="n">
-        <v>751.5725302939658</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L35" t="n">
         <v>226.0635458350341</v>
@@ -37320,16 +37320,16 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O35" t="n">
-        <v>424.4067293519111</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P35" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367804</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>26.38941582204423</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110254</v>
+        <v>351.3364905475623</v>
       </c>
       <c r="K36" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L36" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M36" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N36" t="n">
-        <v>478.2678997970842</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O36" t="n">
         <v>182.3626293119023</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.4305766020508</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K37" t="n">
-        <v>297.6471075097742</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L37" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660406</v>
       </c>
       <c r="M37" t="n">
         <v>564.8528324380011</v>
@@ -37484,7 +37484,7 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R37" t="n">
         <v>7.689198871994801</v>
@@ -37542,13 +37542,13 @@
         <v>54.8148857737251</v>
       </c>
       <c r="J38" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K38" t="n">
         <v>182.2228396528252</v>
       </c>
       <c r="L38" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M38" t="n">
         <v>251.5392525235234</v>
@@ -37557,10 +37557,10 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O38" t="n">
-        <v>710.5259520549369</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P38" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367804</v>
       </c>
       <c r="Q38" t="n">
         <v>706.7158040369222</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.4305766020508</v>
+        <v>98.529599250822</v>
       </c>
       <c r="K40" t="n">
-        <v>352.1901855749456</v>
+        <v>74.65639307884908</v>
       </c>
       <c r="L40" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M40" t="n">
-        <v>564.8528324380012</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N40" t="n">
-        <v>545.0586979658879</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O40" t="n">
         <v>514.7344358055939</v>
       </c>
       <c r="P40" t="n">
-        <v>374.1914085795829</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R40" t="n">
         <v>7.689198871994801</v>
@@ -37779,31 +37779,31 @@
         <v>54.8148857737251</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K41" t="n">
         <v>182.2228396528252</v>
       </c>
       <c r="L41" t="n">
-        <v>751.5725302939655</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M41" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N41" t="n">
-        <v>422.1100501686108</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P41" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367804</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R41" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.4305766020508</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K43" t="n">
         <v>352.1901855749456</v>
@@ -37946,19 +37946,19 @@
         <v>517.9687038524467</v>
       </c>
       <c r="M43" t="n">
-        <v>564.8528324380012</v>
+        <v>252.963835151595</v>
       </c>
       <c r="N43" t="n">
-        <v>545.0586979658879</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O43" t="n">
         <v>514.7344358055939</v>
       </c>
       <c r="P43" t="n">
-        <v>374.1914085795829</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R43" t="n">
         <v>7.689198871994801</v>
@@ -38016,16 +38016,16 @@
         <v>54.8148857737251</v>
       </c>
       <c r="J44" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K44" t="n">
         <v>182.2228396528252</v>
       </c>
       <c r="L44" t="n">
-        <v>695.2247702419655</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M44" t="n">
-        <v>251.5392525235234</v>
+        <v>281.049277483063</v>
       </c>
       <c r="N44" t="n">
         <v>255.6094206055461</v>
@@ -38095,10 +38095,10 @@
         <v>26.38941582204423</v>
       </c>
       <c r="J45" t="n">
-        <v>72.41457404110254</v>
+        <v>351.3364905475623</v>
       </c>
       <c r="K45" t="n">
-        <v>521.0462990757923</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L45" t="n">
         <v>166.4214051299746</v>
@@ -38119,7 +38119,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R45" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
